--- a/20250710_req_filtros/doc/IndicacionesDeudoresBulk_v2.xlsx
+++ b/20250710_req_filtros/doc/IndicacionesDeudoresBulk_v2.xlsx
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -329,15 +329,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,10 +850,10 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -863,38 +866,38 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -930,27 +933,27 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -971,13 +974,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>43</v>
       </c>
     </row>
